--- a/Data/Xlsx/2016-02-02407A_SI_Tables_S1_and_S2.xlsx
+++ b/Data/Xlsx/2016-02-02407A_SI_Tables_S1_and_S2.xlsx
@@ -1,29 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="597" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="16380" windowHeight="8175" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="SI" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="SI Table S1" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="SI Table S2" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="SI" sheetId="1" r:id="rId1"/>
+    <sheet name="SI Table S1" sheetId="2" r:id="rId2"/>
+    <sheet name="SI Table S2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="109">
-  <si>
-    <t>Supplementary Information for </t>
-  </si>
-  <si>
-    <t>“A simple rule to determine which insolation cycles lead to interglacials” </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="121">
+  <si>
+    <t>Supplementary Information for</t>
+  </si>
+  <si>
+    <t>“A simple rule to determine which insolation cycles lead to interglacials”</t>
   </si>
   <si>
     <t>P.C. Tzedakis, M. Crucifix, T. Mitsui, &amp; E.W. Wolff</t>
@@ -191,7 +190,7 @@
     <t>Borderline c-ig/ig</t>
   </si>
   <si>
-    <t>Classification of the peaks in the summer solstice mean daily insolation at  65°N over the last 2.6 Myr (Laskar, J. et al. A long-term numerical solution for the insolation quantities of the Earth. Astron. Astrophys. 428, 261285, 2004) </t>
+    <t>Classification of the peaks in the summer solstice mean daily insolation at  65°N over the last 2.6 Myr (Laskar, J. et al. A long-term numerical solution for the insolation quantities of the Earth. Astron. Astrophys. 428, 261285, 2004)</t>
   </si>
   <si>
     <t>MIS/age nomenclature  used on figures</t>
@@ -345,37 +344,67 @@
   </si>
   <si>
     <t>MIS 103</t>
+  </si>
+  <si>
+    <t>5a</t>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>5c</t>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>6e</t>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>9a</t>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>11a</t>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>13c</t>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>15c</t>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>5a</t>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>9a</t>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>13c</t>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>15c</t>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>19c</t>
+    <phoneticPr fontId="20"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -385,7 +414,7 @@
       <charset val="128"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -507,6 +536,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -523,325 +558,217 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="66">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 2" xfId="20" builtinId="54" customBuiltin="true"/>
+  <cellStyles count="2">
+    <cellStyle name="TableStyleLight1" xfId="1"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -900,171 +827,457 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="66.4291497975708"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.85425101214575"/>
+    <col min="1" max="1" width="66.42578125"/>
+    <col min="2" max="1025" width="8.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="20"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J118"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="12.7125506072875"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="19.2834008097166"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.7125506072875"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="12.7125506072875"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.8542510121458"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="12.7125506072875"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.85425101214575"/>
+    <col min="1" max="1" width="13.140625"/>
+    <col min="2" max="2" width="17.140625"/>
+    <col min="3" max="4" width="12.7109375"/>
+    <col min="5" max="5" width="19.28515625" style="3"/>
+    <col min="6" max="6" width="12.7109375"/>
+    <col min="7" max="7" width="12.7109375" style="3"/>
+    <col min="8" max="8" width="16.85546875"/>
+    <col min="9" max="10" width="12.7109375"/>
+    <col min="11" max="1025" width="8.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
-      <c r="E1" s="0"/>
-      <c r="G1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1"/>
+      <c r="G1"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="0"/>
-      <c r="G2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E2"/>
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="0"/>
-      <c r="G3" s="0"/>
-    </row>
-    <row r="4" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E3"/>
+      <c r="G3"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="0"/>
-      <c r="G4" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E4"/>
+      <c r="G4"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="0"/>
-      <c r="G5" s="0"/>
-    </row>
-    <row r="6" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E5"/>
+      <c r="G5"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="4">
         <v>3.68</v>
       </c>
       <c r="D6" s="4"/>
-      <c r="E6" s="0"/>
-      <c r="F6" s="4" t="n">
+      <c r="E6"/>
+      <c r="F6" s="4">
         <v>3.88</v>
       </c>
-      <c r="G6" s="0"/>
-    </row>
-    <row r="7" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G6"/>
+    </row>
+    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="4">
         <v>3.92</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="0"/>
-      <c r="F7" s="4" t="n">
+      <c r="E7"/>
+      <c r="F7" s="4">
         <v>4.12</v>
       </c>
-      <c r="G7" s="0"/>
+      <c r="G7"/>
       <c r="H7" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>13</v>
       </c>
@@ -1096,89 +1309,89 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>10</v>
       </c>
-      <c r="B9" s="12" t="n">
+      <c r="B9" s="12">
         <v>1</v>
       </c>
-      <c r="C9" s="13" t="n">
+      <c r="C9" s="13">
         <v>1</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="15"/>
-      <c r="F9" s="13" t="n">
+      <c r="F9" s="13">
         <v>1</v>
       </c>
-      <c r="G9" s="0"/>
-      <c r="I9" s="13" t="n">
+      <c r="G9"/>
+      <c r="I9" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>51</v>
       </c>
-      <c r="B10" s="12" t="n">
-        <v>51</v>
-      </c>
-      <c r="C10" s="16" t="n">
-        <v>51</v>
+      <c r="B10" s="12">
+        <v>3</v>
+      </c>
+      <c r="C10" s="16">
+        <v>3</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="15"/>
-      <c r="F10" s="16" t="n">
-        <v>51</v>
-      </c>
-      <c r="G10" s="0"/>
-      <c r="I10" s="16" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="F10" s="16">
+        <v>3</v>
+      </c>
+      <c r="G10"/>
+      <c r="I10" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>85</v>
       </c>
-      <c r="B11" s="12" t="n">
-        <v>85</v>
-      </c>
-      <c r="C11" s="16" t="n">
-        <v>85</v>
+      <c r="B11" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>109</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="15"/>
-      <c r="F11" s="16" t="n">
-        <v>85</v>
-      </c>
-      <c r="G11" s="0"/>
-      <c r="I11" s="16" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="F11" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11"/>
+      <c r="I11" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>103</v>
       </c>
-      <c r="B12" s="12" t="n">
-        <v>103</v>
-      </c>
-      <c r="C12" s="16" t="n">
-        <v>103</v>
+      <c r="B12" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>110</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="15"/>
-      <c r="F12" s="16" t="n">
-        <v>103</v>
+      <c r="F12" s="16" t="s">
+        <v>110</v>
       </c>
       <c r="G12" s="15"/>
-      <c r="I12" s="16" t="n">
-        <v>103</v>
+      <c r="I12" s="16" t="s">
+        <v>110</v>
       </c>
       <c r="J12" s="18"/>
     </row>
-    <row r="13" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>128</v>
       </c>
       <c r="B13" s="12" t="s">
@@ -1197,50 +1410,50 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>152</v>
       </c>
-      <c r="B14" s="12" t="n">
+      <c r="B14" s="12">
         <v>152</v>
       </c>
-      <c r="C14" s="16" t="n">
+      <c r="C14" s="16">
         <v>152</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="15"/>
-      <c r="F14" s="16" t="n">
+      <c r="F14" s="16">
         <v>152</v>
       </c>
       <c r="G14" s="15"/>
-      <c r="I14" s="16" t="n">
+      <c r="I14" s="16">
         <v>152</v>
       </c>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>175</v>
       </c>
-      <c r="B15" s="12" t="n">
-        <v>175</v>
-      </c>
-      <c r="C15" s="16" t="n">
-        <v>175</v>
+      <c r="B15" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>111</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="15"/>
-      <c r="F15" s="16" t="n">
-        <v>175</v>
+      <c r="F15" s="16" t="s">
+        <v>111</v>
       </c>
       <c r="G15" s="15"/>
-      <c r="I15" s="16" t="n">
-        <v>175</v>
+      <c r="I15" s="16" t="s">
+        <v>111</v>
       </c>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>201</v>
       </c>
       <c r="B16" s="12" t="s">
@@ -1260,8 +1473,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>218</v>
       </c>
       <c r="B17" s="12" t="s">
@@ -1280,8 +1493,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>244</v>
       </c>
       <c r="B18" s="12" t="s">
@@ -1300,50 +1513,50 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>260</v>
       </c>
-      <c r="B19" s="12" t="n">
+      <c r="B19" s="12">
         <v>260</v>
       </c>
-      <c r="C19" s="16" t="n">
+      <c r="C19" s="16">
         <v>260</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="15"/>
-      <c r="F19" s="16" t="n">
+      <c r="F19" s="16">
         <v>260</v>
       </c>
       <c r="G19" s="15"/>
-      <c r="I19" s="16" t="n">
+      <c r="I19" s="16">
         <v>260</v>
       </c>
       <c r="J19" s="23"/>
     </row>
-    <row r="20" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>292</v>
       </c>
-      <c r="B20" s="12" t="n">
+      <c r="B20" s="12">
         <v>292</v>
       </c>
-      <c r="C20" s="16" t="n">
-        <v>292</v>
+      <c r="C20" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="15"/>
-      <c r="F20" s="16" t="n">
-        <v>292</v>
+      <c r="F20" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="G20" s="15"/>
-      <c r="I20" s="16" t="n">
-        <v>292</v>
+      <c r="I20" s="16" t="s">
+        <v>117</v>
       </c>
       <c r="J20" s="23"/>
     </row>
-    <row r="21" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+    <row r="21" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>313</v>
       </c>
       <c r="B21" s="12" t="s">
@@ -1369,8 +1582,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>334</v>
       </c>
       <c r="B22" s="12" t="s">
@@ -1389,28 +1602,28 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>372</v>
       </c>
-      <c r="B23" s="12" t="n">
-        <v>372</v>
-      </c>
-      <c r="C23" s="16" t="n">
-        <v>372</v>
+      <c r="B23" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>113</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="15"/>
-      <c r="F23" s="16" t="n">
-        <v>372</v>
+      <c r="F23" s="16" t="s">
+        <v>113</v>
       </c>
       <c r="G23" s="15"/>
-      <c r="I23" s="16" t="n">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+      <c r="I23" s="16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>410</v>
       </c>
       <c r="B24" s="12" t="s">
@@ -1429,48 +1642,48 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>449</v>
       </c>
-      <c r="B25" s="12" t="n">
+      <c r="B25" s="12">
         <v>449</v>
       </c>
-      <c r="C25" s="16" t="n">
+      <c r="C25" s="16">
         <v>449</v>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="15"/>
-      <c r="F25" s="16" t="n">
+      <c r="F25" s="16">
         <v>449</v>
       </c>
       <c r="G25" s="15"/>
-      <c r="I25" s="16" t="n">
+      <c r="I25" s="16">
         <v>449</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+    <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>462</v>
       </c>
-      <c r="B26" s="12" t="n">
+      <c r="B26" s="12">
         <v>462</v>
       </c>
-      <c r="C26" s="16" t="n">
+      <c r="C26" s="16">
         <v>462</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="15"/>
-      <c r="F26" s="16" t="n">
+      <c r="F26" s="16">
         <v>462</v>
       </c>
       <c r="G26" s="15"/>
-      <c r="I26" s="16" t="n">
+      <c r="I26" s="16">
         <v>462</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+    <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>486</v>
       </c>
       <c r="B27" s="12" t="s">
@@ -1489,70 +1702,70 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+    <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>505</v>
       </c>
-      <c r="B28" s="12" t="n">
+      <c r="B28" s="12">
         <v>505</v>
       </c>
-      <c r="C28" s="16" t="n">
+      <c r="C28" s="16">
         <v>505</v>
       </c>
       <c r="D28" s="17"/>
       <c r="E28" s="15"/>
-      <c r="F28" s="16" t="n">
+      <c r="F28" s="16">
         <v>505</v>
       </c>
       <c r="G28" s="15"/>
-      <c r="I28" s="16" t="n">
+      <c r="I28" s="16">
         <v>505</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>535</v>
       </c>
-      <c r="B29" s="12" t="n">
-        <v>535</v>
-      </c>
-      <c r="C29" s="16" t="n">
-        <v>535</v>
+      <c r="B29" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>114</v>
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="15"/>
-      <c r="F29" s="16" t="n">
-        <v>535</v>
+      <c r="F29" s="16" t="s">
+        <v>114</v>
       </c>
       <c r="G29" s="15"/>
-      <c r="I29" s="16" t="n">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+      <c r="I29" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>557</v>
       </c>
-      <c r="B30" s="12" t="n">
+      <c r="B30" s="12">
         <v>557</v>
       </c>
-      <c r="C30" s="16" t="n">
+      <c r="C30" s="16">
         <v>557</v>
       </c>
       <c r="D30" s="17"/>
       <c r="E30" s="15"/>
-      <c r="F30" s="16" t="n">
+      <c r="F30" s="16">
         <v>557</v>
       </c>
       <c r="G30" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="I30" s="16" t="n">
+      <c r="I30" s="16">
         <v>557</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+    <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>578</v>
       </c>
       <c r="B31" s="12" t="s">
@@ -1571,28 +1784,28 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+    <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>599</v>
       </c>
-      <c r="B32" s="12" t="n">
-        <v>599</v>
-      </c>
-      <c r="C32" s="16" t="n">
-        <v>599</v>
+      <c r="B32" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>115</v>
       </c>
       <c r="D32" s="17"/>
       <c r="E32" s="15"/>
-      <c r="F32" s="16" t="n">
-        <v>599</v>
+      <c r="F32" s="16" t="s">
+        <v>115</v>
       </c>
       <c r="G32" s="15"/>
-      <c r="I32" s="16" t="n">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+      <c r="I32" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>620</v>
       </c>
       <c r="B33" s="12" t="s">
@@ -1611,228 +1824,228 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>652</v>
       </c>
-      <c r="B34" s="12" t="n">
+      <c r="B34" s="12">
         <v>652</v>
       </c>
-      <c r="C34" s="16" t="n">
+      <c r="C34" s="16">
         <v>652</v>
       </c>
       <c r="D34" s="17"/>
       <c r="E34" s="15"/>
-      <c r="F34" s="16" t="n">
+      <c r="F34" s="16">
         <v>652</v>
       </c>
       <c r="G34" s="15"/>
-      <c r="I34" s="16" t="n">
+      <c r="I34" s="16">
         <v>652</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>671</v>
       </c>
-      <c r="B35" s="12" t="n">
+      <c r="B35" s="12">
         <v>671</v>
       </c>
-      <c r="C35" s="16" t="n">
+      <c r="C35" s="16">
         <v>671</v>
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="15"/>
-      <c r="F35" s="16" t="n">
+      <c r="F35" s="16">
         <v>671</v>
       </c>
       <c r="G35" s="15"/>
-      <c r="I35" s="16" t="n">
+      <c r="I35" s="16">
         <v>671</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
+    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>694</v>
       </c>
-      <c r="B36" s="12" t="n">
+      <c r="B36" s="12">
         <v>17</v>
       </c>
-      <c r="C36" s="13" t="n">
+      <c r="C36" s="13">
         <v>17</v>
       </c>
       <c r="D36" s="14"/>
       <c r="E36" s="15"/>
-      <c r="F36" s="13" t="n">
+      <c r="F36" s="13">
         <v>17</v>
       </c>
       <c r="G36" s="15"/>
-      <c r="I36" s="13" t="n">
+      <c r="I36" s="13">
         <v>17</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
+    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>712</v>
       </c>
-      <c r="B37" s="12" t="n">
+      <c r="B37" s="12">
         <v>712</v>
       </c>
-      <c r="C37" s="16" t="n">
+      <c r="C37" s="16">
         <v>712</v>
       </c>
       <c r="D37" s="17"/>
       <c r="E37" s="15"/>
-      <c r="F37" s="16" t="n">
+      <c r="F37" s="16">
         <v>712</v>
       </c>
       <c r="G37" s="15"/>
-      <c r="I37" s="16" t="n">
+      <c r="I37" s="16">
         <v>712</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
+    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>737</v>
       </c>
-      <c r="B38" s="12" t="n">
+      <c r="B38" s="12">
         <v>737</v>
       </c>
-      <c r="C38" s="16" t="n">
+      <c r="C38" s="16">
         <v>737</v>
       </c>
       <c r="D38" s="17"/>
       <c r="E38" s="15"/>
-      <c r="F38" s="16" t="n">
+      <c r="F38" s="16">
         <v>737</v>
       </c>
       <c r="G38" s="15"/>
-      <c r="I38" s="16" t="n">
+      <c r="I38" s="16">
         <v>737</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
+    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>747</v>
       </c>
-      <c r="B39" s="12" t="n">
+      <c r="B39" s="12">
         <v>747</v>
       </c>
-      <c r="C39" s="16" t="n">
+      <c r="C39" s="16">
         <v>747</v>
       </c>
       <c r="D39" s="17"/>
       <c r="E39" s="15"/>
-      <c r="F39" s="16" t="n">
+      <c r="F39" s="16">
         <v>747</v>
       </c>
       <c r="G39" s="15"/>
-      <c r="I39" s="16" t="n">
+      <c r="I39" s="16">
         <v>747</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
+    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>770</v>
       </c>
-      <c r="B40" s="12" t="n">
+      <c r="B40" s="12">
         <v>770</v>
       </c>
-      <c r="C40" s="16" t="n">
+      <c r="C40" s="16">
         <v>770</v>
       </c>
       <c r="D40" s="17"/>
-      <c r="E40" s="0"/>
-      <c r="F40" s="16" t="n">
+      <c r="E40"/>
+      <c r="F40" s="16">
         <v>770</v>
       </c>
-      <c r="G40" s="0"/>
-      <c r="I40" s="16" t="n">
+      <c r="G40"/>
+      <c r="I40" s="16">
         <v>770</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
+    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>787</v>
       </c>
-      <c r="B41" s="12" t="n">
-        <v>19</v>
-      </c>
-      <c r="C41" s="13" t="n">
-        <v>19</v>
+      <c r="B41" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>120</v>
       </c>
       <c r="D41" s="14"/>
       <c r="E41" s="15"/>
-      <c r="F41" s="13" t="n">
-        <v>19</v>
+      <c r="F41" s="13" t="s">
+        <v>120</v>
       </c>
       <c r="G41" s="15"/>
-      <c r="I41" s="13" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
+      <c r="I41" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>807</v>
       </c>
-      <c r="B42" s="12" t="n">
+      <c r="B42" s="12">
         <v>807</v>
       </c>
-      <c r="C42" s="16" t="n">
+      <c r="C42" s="16">
         <v>807</v>
       </c>
       <c r="D42" s="17"/>
       <c r="E42" s="15"/>
-      <c r="F42" s="16" t="n">
+      <c r="F42" s="16">
         <v>807</v>
       </c>
       <c r="G42" s="15"/>
-      <c r="I42" s="16" t="n">
+      <c r="I42" s="16">
         <v>807</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
+    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>825</v>
       </c>
-      <c r="B43" s="12" t="n">
+      <c r="B43" s="12">
         <v>825</v>
       </c>
-      <c r="C43" s="16" t="n">
+      <c r="C43" s="16">
         <v>825</v>
       </c>
       <c r="D43" s="17"/>
       <c r="E43" s="15"/>
-      <c r="F43" s="16" t="n">
+      <c r="F43" s="16">
         <v>825</v>
       </c>
       <c r="G43" s="15"/>
-      <c r="I43" s="16" t="n">
+      <c r="I43" s="16">
         <v>825</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
+    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>843</v>
       </c>
-      <c r="B44" s="26" t="n">
+      <c r="B44" s="26">
         <v>843</v>
       </c>
-      <c r="C44" s="27" t="n">
+      <c r="C44" s="27">
         <v>843</v>
       </c>
       <c r="D44" s="28"/>
       <c r="E44" s="29"/>
-      <c r="F44" s="26" t="n">
+      <c r="F44" s="26">
         <v>843</v>
       </c>
       <c r="G44" s="30"/>
-      <c r="I44" s="27" t="n">
+      <c r="I44" s="27">
         <v>843</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
+    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>866</v>
       </c>
       <c r="B45" s="12" t="s">
@@ -1851,218 +2064,218 @@
         <v>36</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
+    <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>885</v>
       </c>
-      <c r="B46" s="12" t="n">
+      <c r="B46" s="12">
         <v>885</v>
       </c>
-      <c r="C46" s="16" t="n">
+      <c r="C46" s="16">
         <v>885</v>
       </c>
       <c r="D46" s="17"/>
       <c r="E46" s="15"/>
-      <c r="F46" s="16" t="n">
+      <c r="F46" s="16">
         <v>885</v>
       </c>
       <c r="G46" s="15"/>
-      <c r="I46" s="16" t="n">
+      <c r="I46" s="16">
         <v>885</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
+    <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>911</v>
       </c>
-      <c r="B47" s="12" t="n">
-        <v>911</v>
-      </c>
-      <c r="C47" s="16" t="n">
-        <v>911</v>
+      <c r="B47" s="12">
+        <v>23</v>
+      </c>
+      <c r="C47" s="16">
+        <v>23</v>
       </c>
       <c r="D47" s="17"/>
       <c r="E47" s="15"/>
-      <c r="F47" s="16" t="n">
-        <v>911</v>
+      <c r="F47" s="16">
+        <v>23</v>
       </c>
       <c r="G47" s="15"/>
-      <c r="I47" s="16" t="n">
+      <c r="I47" s="16">
         <v>23</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
+    <row r="48" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>937</v>
       </c>
-      <c r="B48" s="12" t="n">
+      <c r="B48" s="12">
         <v>937</v>
       </c>
-      <c r="C48" s="16" t="n">
+      <c r="C48" s="16">
         <v>937</v>
       </c>
       <c r="D48" s="17"/>
       <c r="E48" s="15"/>
-      <c r="F48" s="16" t="n">
+      <c r="F48" s="16">
         <v>937</v>
       </c>
       <c r="G48" s="15"/>
-      <c r="I48" s="16" t="n">
+      <c r="I48" s="16">
         <v>937</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
+    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>958</v>
       </c>
-      <c r="B49" s="12" t="n">
+      <c r="B49" s="12">
         <v>25</v>
       </c>
-      <c r="C49" s="13" t="n">
+      <c r="C49" s="13">
         <v>25</v>
       </c>
       <c r="D49" s="14"/>
       <c r="E49" s="15"/>
-      <c r="F49" s="13" t="n">
+      <c r="F49" s="13">
         <v>25</v>
       </c>
       <c r="G49" s="15"/>
-      <c r="I49" s="13" t="n">
+      <c r="I49" s="13">
         <v>25</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="n">
+    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>980</v>
       </c>
-      <c r="B50" s="12" t="n">
+      <c r="B50" s="12">
         <v>27</v>
       </c>
-      <c r="C50" s="16" t="n">
+      <c r="C50" s="16">
         <v>27</v>
       </c>
       <c r="D50" s="17"/>
       <c r="E50" s="31"/>
-      <c r="F50" s="32" t="n">
+      <c r="F50" s="32">
         <v>27</v>
       </c>
       <c r="G50" s="31"/>
-      <c r="I50" s="16" t="n">
+      <c r="I50" s="16">
         <v>27</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="n">
+    <row r="51" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>999</v>
       </c>
-      <c r="B51" s="12" t="n">
+      <c r="B51" s="12">
         <v>999</v>
       </c>
-      <c r="C51" s="16" t="n">
+      <c r="C51" s="16">
         <v>999</v>
       </c>
       <c r="D51" s="17"/>
       <c r="E51" s="31"/>
-      <c r="F51" s="16" t="n">
+      <c r="F51" s="16">
         <v>999</v>
       </c>
       <c r="G51" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="I51" s="16" t="n">
+      <c r="I51" s="16">
         <v>999</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="n">
+    <row r="52" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>1031</v>
       </c>
-      <c r="B52" s="12" t="n">
+      <c r="B52" s="12">
         <v>29</v>
       </c>
-      <c r="C52" s="13" t="n">
+      <c r="C52" s="13">
         <v>29</v>
       </c>
       <c r="D52" s="14"/>
       <c r="E52" s="15"/>
-      <c r="F52" s="13" t="n">
+      <c r="F52" s="13">
         <v>29</v>
       </c>
       <c r="G52" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="I52" s="13" t="n">
+      <c r="I52" s="13">
         <v>29</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="n">
+    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>1051</v>
       </c>
-      <c r="B53" s="12" t="n">
+      <c r="B53" s="12">
         <v>1051</v>
       </c>
-      <c r="C53" s="16" t="n">
+      <c r="C53" s="16">
         <v>1051</v>
       </c>
       <c r="D53" s="17"/>
       <c r="E53" s="15"/>
-      <c r="F53" s="16" t="n">
+      <c r="F53" s="16">
         <v>1051</v>
       </c>
       <c r="G53" s="15"/>
-      <c r="I53" s="16" t="n">
+      <c r="I53" s="16">
         <v>1051</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="n">
+    <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>1073</v>
       </c>
-      <c r="B54" s="12" t="n">
+      <c r="B54" s="12">
         <v>31</v>
       </c>
-      <c r="C54" s="13" t="n">
+      <c r="C54" s="13">
         <v>31</v>
       </c>
       <c r="D54" s="14"/>
       <c r="E54" s="15"/>
-      <c r="F54" s="13" t="n">
+      <c r="F54" s="13">
         <v>31</v>
       </c>
       <c r="G54" s="15"/>
-      <c r="I54" s="13" t="n">
+      <c r="I54" s="13">
         <v>31</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="n">
+    <row r="55" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>1093</v>
       </c>
-      <c r="B55" s="12" t="n">
+      <c r="B55" s="12">
         <v>1093</v>
       </c>
-      <c r="C55" s="16" t="n">
+      <c r="C55" s="16">
         <v>1093</v>
       </c>
       <c r="D55" s="17"/>
       <c r="E55" s="15"/>
-      <c r="F55" s="16" t="n">
+      <c r="F55" s="16">
         <v>1093</v>
       </c>
       <c r="G55" s="15"/>
-      <c r="I55" s="16" t="n">
+      <c r="I55" s="16">
         <v>1093</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="n">
+    <row r="56" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>1115</v>
       </c>
-      <c r="B56" s="12" t="n">
+      <c r="B56" s="12">
         <v>33</v>
       </c>
-      <c r="C56" s="13" t="n">
+      <c r="C56" s="13">
         <v>33</v>
       </c>
       <c r="D56" s="14" t="s">
@@ -2071,432 +2284,432 @@
       <c r="E56" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F56" s="13" t="n">
+      <c r="F56" s="13">
         <v>33</v>
       </c>
       <c r="G56" s="15"/>
-      <c r="H56" s="0" t="s">
+      <c r="H56" t="s">
         <v>40</v>
       </c>
-      <c r="I56" s="13" t="n">
+      <c r="I56" s="13">
         <v>33</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="n">
+    <row r="57" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>1147</v>
       </c>
-      <c r="B57" s="12" t="n">
+      <c r="B57" s="12">
         <v>1147</v>
       </c>
-      <c r="C57" s="16" t="n">
+      <c r="C57" s="16">
         <v>1147</v>
       </c>
       <c r="D57" s="17"/>
       <c r="E57" s="15"/>
-      <c r="F57" s="16" t="n">
+      <c r="F57" s="16">
         <v>1147</v>
       </c>
       <c r="G57" s="15"/>
-      <c r="I57" s="16" t="n">
+      <c r="I57" s="16">
         <v>1147</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="n">
+    <row r="58" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>1166</v>
       </c>
-      <c r="B58" s="12" t="n">
+      <c r="B58" s="12">
         <v>1166</v>
       </c>
-      <c r="C58" s="19" t="n">
+      <c r="C58" s="19">
         <v>1166</v>
       </c>
       <c r="D58" s="20"/>
       <c r="E58" s="21"/>
-      <c r="F58" s="19" t="n">
+      <c r="F58" s="19">
         <v>1166</v>
       </c>
       <c r="G58" s="21"/>
       <c r="H58" s="22"/>
-      <c r="I58" s="19" t="n">
+      <c r="I58" s="19">
         <v>1166</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="n">
+    <row r="59" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>1190</v>
       </c>
-      <c r="B59" s="12" t="n">
+      <c r="B59" s="12">
         <v>35</v>
       </c>
-      <c r="C59" s="13" t="n">
+      <c r="C59" s="13">
         <v>35</v>
       </c>
       <c r="D59" s="14"/>
       <c r="E59" s="15"/>
-      <c r="F59" s="13" t="n">
+      <c r="F59" s="13">
         <v>35</v>
       </c>
       <c r="G59" s="15"/>
-      <c r="I59" s="13" t="n">
+      <c r="I59" s="13">
         <v>35</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="n">
+    <row r="60" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>1204</v>
       </c>
-      <c r="B60" s="12" t="n">
+      <c r="B60" s="12">
         <v>1204</v>
       </c>
-      <c r="C60" s="16" t="n">
+      <c r="C60" s="16">
         <v>1204</v>
       </c>
       <c r="D60" s="17"/>
       <c r="E60" s="15"/>
-      <c r="F60" s="16" t="n">
+      <c r="F60" s="16">
         <v>1204</v>
       </c>
       <c r="G60" s="15"/>
-      <c r="I60" s="16" t="n">
+      <c r="I60" s="16">
         <v>1204</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="n">
+    <row r="61" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>1227</v>
       </c>
-      <c r="B61" s="12" t="n">
+      <c r="B61" s="12">
         <v>1227</v>
       </c>
-      <c r="C61" s="16" t="n">
+      <c r="C61" s="16">
         <v>1227</v>
       </c>
       <c r="D61" s="17"/>
       <c r="E61" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="F61" s="33" t="n">
+      <c r="F61" s="33">
         <v>1227</v>
       </c>
       <c r="G61" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="I61" s="16" t="n">
+      <c r="I61" s="16">
         <v>1227</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="n">
+    <row r="62" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62">
         <v>1243</v>
       </c>
-      <c r="B62" s="12" t="n">
+      <c r="B62" s="12">
         <v>37</v>
       </c>
-      <c r="C62" s="13" t="n">
+      <c r="C62" s="13">
         <v>37</v>
       </c>
       <c r="D62" s="14"/>
       <c r="E62" s="15"/>
-      <c r="F62" s="13" t="n">
+      <c r="F62" s="13">
         <v>37</v>
       </c>
       <c r="G62" s="15"/>
-      <c r="I62" s="13" t="n">
+      <c r="I62" s="13">
         <v>37</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="n">
+    <row r="63" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>1266</v>
       </c>
-      <c r="B63" s="12" t="n">
+      <c r="B63" s="12">
         <v>1266</v>
       </c>
-      <c r="C63" s="16" t="n">
+      <c r="C63" s="16">
         <v>1266</v>
       </c>
       <c r="D63" s="17"/>
       <c r="E63" s="15"/>
-      <c r="F63" s="16" t="n">
+      <c r="F63" s="16">
         <v>1266</v>
       </c>
       <c r="G63" s="15"/>
-      <c r="I63" s="16" t="n">
+      <c r="I63" s="16">
         <v>1266</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="n">
+    <row r="64" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64">
         <v>1282</v>
       </c>
-      <c r="B64" s="12" t="n">
+      <c r="B64" s="12">
         <v>39</v>
       </c>
-      <c r="C64" s="13" t="n">
+      <c r="C64" s="13">
         <v>39</v>
       </c>
       <c r="D64" s="14"/>
       <c r="E64" s="15"/>
-      <c r="F64" s="13" t="n">
+      <c r="F64" s="13">
         <v>39</v>
       </c>
       <c r="G64" s="15"/>
-      <c r="I64" s="13" t="n">
+      <c r="I64" s="13">
         <v>39</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="n">
+    <row r="65" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65">
         <v>1319</v>
       </c>
-      <c r="B65" s="12" t="n">
+      <c r="B65" s="12">
         <v>41</v>
       </c>
-      <c r="C65" s="13" t="n">
+      <c r="C65" s="13">
         <v>41</v>
       </c>
       <c r="D65" s="14"/>
       <c r="E65" s="15"/>
-      <c r="F65" s="13" t="n">
+      <c r="F65" s="13">
         <v>41</v>
       </c>
       <c r="G65" s="15"/>
-      <c r="I65" s="13" t="n">
+      <c r="I65" s="13">
         <v>41</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="n">
+    <row r="66" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66">
         <v>1337</v>
       </c>
-      <c r="B66" s="12" t="n">
+      <c r="B66" s="12">
         <v>1337</v>
       </c>
-      <c r="C66" s="16" t="n">
+      <c r="C66" s="16">
         <v>1337</v>
       </c>
       <c r="D66" s="17"/>
       <c r="E66" s="15"/>
-      <c r="F66" s="16" t="n">
+      <c r="F66" s="16">
         <v>1337</v>
       </c>
       <c r="G66" s="15"/>
-      <c r="I66" s="16" t="n">
+      <c r="I66" s="16">
         <v>1337</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="n">
+    <row r="67" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67">
         <v>1359</v>
       </c>
-      <c r="B67" s="12" t="n">
+      <c r="B67" s="12">
         <v>43</v>
       </c>
-      <c r="C67" s="13" t="n">
+      <c r="C67" s="13">
         <v>43</v>
       </c>
       <c r="D67" s="14"/>
       <c r="E67" s="15"/>
-      <c r="F67" s="13" t="n">
+      <c r="F67" s="13">
         <v>43</v>
       </c>
       <c r="G67" s="15"/>
-      <c r="I67" s="13" t="n">
+      <c r="I67" s="13">
         <v>43</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="n">
+    <row r="68" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68">
         <v>1378</v>
       </c>
-      <c r="B68" s="12" t="n">
+      <c r="B68" s="12">
         <v>1378</v>
       </c>
-      <c r="C68" s="16" t="n">
+      <c r="C68" s="16">
         <v>1378</v>
       </c>
       <c r="D68" s="17"/>
       <c r="E68" s="15"/>
-      <c r="F68" s="16" t="n">
+      <c r="F68" s="16">
         <v>1378</v>
       </c>
       <c r="G68" s="15"/>
-      <c r="I68" s="16" t="n">
+      <c r="I68" s="16">
         <v>1378</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="n">
+    <row r="69" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69">
         <v>1401</v>
       </c>
-      <c r="B69" s="12" t="n">
+      <c r="B69" s="12">
         <v>45</v>
       </c>
-      <c r="C69" s="13" t="n">
+      <c r="C69" s="13">
         <v>45</v>
       </c>
       <c r="D69" s="14"/>
       <c r="E69" s="15"/>
-      <c r="F69" s="13" t="n">
+      <c r="F69" s="13">
         <v>45</v>
       </c>
       <c r="G69" s="15"/>
-      <c r="I69" s="13" t="n">
+      <c r="I69" s="13">
         <v>45</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="n">
+    <row r="70" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70">
         <v>1433</v>
       </c>
-      <c r="B70" s="12" t="n">
+      <c r="B70" s="12">
         <v>1433</v>
       </c>
-      <c r="C70" s="19" t="n">
+      <c r="C70" s="19">
         <v>1433</v>
       </c>
       <c r="D70" s="20"/>
       <c r="E70" s="21"/>
-      <c r="F70" s="19" t="n">
+      <c r="F70" s="19">
         <v>1433</v>
       </c>
       <c r="G70" s="21"/>
       <c r="H70" s="22"/>
-      <c r="I70" s="19" t="n">
+      <c r="I70" s="19">
         <v>1433</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="n">
+    <row r="71" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71">
         <v>1450</v>
       </c>
-      <c r="B71" s="12" t="n">
+      <c r="B71" s="12">
         <v>47</v>
       </c>
-      <c r="C71" s="13" t="n">
+      <c r="C71" s="13">
         <v>47</v>
       </c>
       <c r="D71" s="14"/>
       <c r="E71" s="15"/>
-      <c r="F71" s="13" t="n">
+      <c r="F71" s="13">
         <v>47</v>
       </c>
       <c r="G71" s="15"/>
-      <c r="I71" s="13" t="n">
+      <c r="I71" s="13">
         <v>47</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="n">
+    <row r="72" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72">
         <v>1475</v>
       </c>
-      <c r="B72" s="12" t="n">
+      <c r="B72" s="12">
         <v>1475</v>
       </c>
-      <c r="C72" s="19" t="n">
+      <c r="C72" s="19">
         <v>1475</v>
       </c>
       <c r="D72" s="20"/>
       <c r="E72" s="21"/>
-      <c r="F72" s="19" t="n">
+      <c r="F72" s="19">
         <v>1475</v>
       </c>
       <c r="G72" s="21"/>
       <c r="H72" s="22"/>
-      <c r="I72" s="19" t="n">
+      <c r="I72" s="19">
         <v>1475</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="n">
+    <row r="73" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73">
         <v>1491</v>
       </c>
-      <c r="B73" s="12" t="n">
+      <c r="B73" s="12">
         <v>49</v>
       </c>
-      <c r="C73" s="13" t="n">
+      <c r="C73" s="13">
         <v>49</v>
       </c>
       <c r="D73" s="14"/>
       <c r="E73" s="15"/>
-      <c r="F73" s="13" t="n">
+      <c r="F73" s="13">
         <v>49</v>
       </c>
       <c r="G73" s="15"/>
-      <c r="I73" s="13" t="n">
+      <c r="I73" s="13">
         <v>49</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="n">
+    <row r="74" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74">
         <v>1527</v>
       </c>
-      <c r="B74" s="12" t="n">
+      <c r="B74" s="12">
         <v>51</v>
       </c>
-      <c r="C74" s="13" t="n">
+      <c r="C74" s="13">
         <v>51</v>
       </c>
       <c r="D74" s="14"/>
       <c r="E74" s="15"/>
-      <c r="F74" s="13" t="n">
+      <c r="F74" s="13">
         <v>51</v>
       </c>
       <c r="G74" s="15"/>
-      <c r="I74" s="13" t="n">
+      <c r="I74" s="13">
         <v>51</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="n">
+    <row r="75" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75">
         <v>1548</v>
       </c>
-      <c r="B75" s="12" t="n">
+      <c r="B75" s="12">
         <v>1548</v>
       </c>
-      <c r="C75" s="16" t="n">
+      <c r="C75" s="16">
         <v>1548</v>
       </c>
       <c r="D75" s="17"/>
       <c r="E75" s="15"/>
-      <c r="F75" s="16" t="n">
+      <c r="F75" s="16">
         <v>1548</v>
       </c>
       <c r="G75" s="15"/>
-      <c r="I75" s="16" t="n">
+      <c r="I75" s="16">
         <v>1548</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="n">
+    <row r="76" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76">
         <v>1566</v>
       </c>
-      <c r="B76" s="12" t="n">
+      <c r="B76" s="12">
         <v>53</v>
       </c>
-      <c r="C76" s="13" t="n">
+      <c r="C76" s="13">
         <v>53</v>
       </c>
       <c r="D76" s="14"/>
       <c r="E76" s="15"/>
-      <c r="F76" s="13" t="n">
+      <c r="F76" s="13">
         <v>53</v>
       </c>
       <c r="G76" s="15"/>
-      <c r="I76" s="13" t="n">
+      <c r="I76" s="13">
         <v>53</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="n">
+    <row r="77" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A77">
         <v>1588</v>
       </c>
-      <c r="B77" s="12" t="n">
+      <c r="B77" s="12">
         <v>1588</v>
       </c>
-      <c r="C77" s="16" t="n">
+      <c r="C77" s="16">
         <v>1588</v>
       </c>
       <c r="D77" s="17" t="s">
@@ -2505,7 +2718,7 @@
       <c r="E77" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="F77" s="33" t="n">
+      <c r="F77" s="33">
         <v>1588</v>
       </c>
       <c r="G77" s="34" t="s">
@@ -2514,39 +2727,39 @@
       <c r="H77" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="I77" s="16" t="n">
+      <c r="I77" s="16">
         <v>1588</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="n">
+    <row r="78" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78">
         <v>1606</v>
       </c>
-      <c r="B78" s="26" t="n">
+      <c r="B78" s="26">
         <v>55</v>
       </c>
-      <c r="C78" s="35" t="n">
+      <c r="C78" s="35">
         <v>55</v>
       </c>
       <c r="D78" s="36"/>
       <c r="E78" s="37"/>
-      <c r="F78" s="38" t="n">
+      <c r="F78" s="38">
         <v>55</v>
       </c>
       <c r="G78" s="39"/>
       <c r="H78" s="25"/>
-      <c r="I78" s="35" t="n">
+      <c r="I78" s="35">
         <v>55</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="n">
+    <row r="79" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A79">
         <v>1624</v>
       </c>
-      <c r="B79" s="26" t="n">
+      <c r="B79" s="26">
         <v>1624</v>
       </c>
-      <c r="C79" s="40" t="n">
+      <c r="C79" s="40">
         <v>1624</v>
       </c>
       <c r="D79" s="41" t="s">
@@ -2555,120 +2768,120 @@
       <c r="E79" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="F79" s="38" t="n">
+      <c r="F79" s="38">
         <v>1624</v>
       </c>
       <c r="G79" s="39"/>
       <c r="H79" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="I79" s="40" t="n">
+      <c r="I79" s="40">
         <v>1624</v>
       </c>
-      <c r="J79" s="0" t="s">
+      <c r="J79" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="n">
+    <row r="80" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80">
         <v>1645</v>
       </c>
-      <c r="B80" s="26" t="n">
+      <c r="B80" s="26">
         <v>57</v>
       </c>
-      <c r="C80" s="35" t="n">
+      <c r="C80" s="35">
         <v>57</v>
       </c>
       <c r="D80" s="36"/>
       <c r="E80" s="37"/>
-      <c r="F80" s="35" t="n">
+      <c r="F80" s="35">
         <v>57</v>
       </c>
       <c r="G80" s="37"/>
       <c r="H80" s="25"/>
-      <c r="I80" s="35" t="n">
+      <c r="I80" s="35">
         <v>57</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="n">
+    <row r="81" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81">
         <v>1663</v>
       </c>
-      <c r="B81" s="12" t="n">
+      <c r="B81" s="12">
         <v>1663</v>
       </c>
-      <c r="C81" s="16" t="n">
+      <c r="C81" s="16">
         <v>1663</v>
       </c>
       <c r="D81" s="17"/>
       <c r="E81" s="37"/>
-      <c r="F81" s="16" t="n">
+      <c r="F81" s="16">
         <v>1663</v>
       </c>
       <c r="G81" s="37"/>
       <c r="H81" s="25"/>
-      <c r="I81" s="16" t="n">
+      <c r="I81" s="16">
         <v>1663</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="78.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="n">
+    <row r="82" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A82">
         <v>1697</v>
       </c>
-      <c r="B82" s="26" t="n">
+      <c r="B82" s="26">
         <v>59</v>
       </c>
-      <c r="C82" s="35" t="n">
+      <c r="C82" s="35">
         <v>59</v>
       </c>
       <c r="D82" s="36"/>
       <c r="E82" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="F82" s="35" t="n">
+      <c r="F82" s="35">
         <v>59</v>
       </c>
       <c r="G82" s="37" t="s">
         <v>48</v>
       </c>
       <c r="H82" s="25"/>
-      <c r="I82" s="35" t="n">
+      <c r="I82" s="35">
         <v>59</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="n">
+    <row r="83" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A83">
         <v>1719</v>
       </c>
-      <c r="B83" s="26" t="n">
+      <c r="B83" s="26">
         <v>1719</v>
       </c>
-      <c r="C83" s="35" t="n">
+      <c r="C83" s="35">
         <v>1719</v>
       </c>
       <c r="D83" s="36"/>
       <c r="E83" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="F83" s="43" t="n">
+      <c r="F83" s="43">
         <v>1719</v>
       </c>
       <c r="G83" s="44"/>
       <c r="H83" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="I83" s="35" t="n">
+      <c r="I83" s="35">
         <v>1719</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="n">
+    <row r="84" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A84">
         <v>1739</v>
       </c>
-      <c r="B84" s="26" t="n">
+      <c r="B84" s="26">
         <v>61</v>
       </c>
-      <c r="C84" s="35" t="n">
+      <c r="C84" s="35">
         <v>61</v>
       </c>
       <c r="D84" s="36" t="s">
@@ -2677,89 +2890,89 @@
       <c r="E84" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="F84" s="43" t="n">
+      <c r="F84" s="43">
         <v>61</v>
       </c>
       <c r="G84" s="44"/>
       <c r="H84" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="I84" s="35" t="n">
+      <c r="I84" s="35">
         <v>61</v>
       </c>
-      <c r="J84" s="0" t="s">
+      <c r="J84" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="n">
+    <row r="85" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85">
         <v>1761</v>
       </c>
-      <c r="B85" s="26" t="n">
+      <c r="B85" s="26">
         <v>1761</v>
       </c>
-      <c r="C85" s="45" t="n">
+      <c r="C85" s="45">
         <v>1761</v>
       </c>
       <c r="D85" s="46"/>
       <c r="E85" s="47"/>
-      <c r="F85" s="45" t="n">
+      <c r="F85" s="45">
         <v>1761</v>
       </c>
       <c r="G85" s="47"/>
       <c r="H85" s="22"/>
-      <c r="I85" s="45" t="n">
+      <c r="I85" s="45">
         <v>1761</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="n">
+    <row r="86" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86">
         <v>1781</v>
       </c>
-      <c r="B86" s="26" t="n">
+      <c r="B86" s="26">
         <v>63</v>
       </c>
-      <c r="C86" s="35" t="n">
+      <c r="C86" s="35">
         <v>63</v>
       </c>
       <c r="D86" s="36"/>
       <c r="E86" s="37"/>
-      <c r="F86" s="35" t="n">
+      <c r="F86" s="35">
         <v>63</v>
       </c>
       <c r="G86" s="37"/>
-      <c r="I86" s="35" t="n">
+      <c r="I86" s="35">
         <v>63</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="n">
+    <row r="87" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87">
         <v>1811</v>
       </c>
-      <c r="B87" s="26" t="n">
+      <c r="B87" s="26">
         <v>65</v>
       </c>
-      <c r="C87" s="35" t="n">
+      <c r="C87" s="35">
         <v>65</v>
       </c>
       <c r="D87" s="36"/>
       <c r="E87" s="37"/>
-      <c r="F87" s="35" t="n">
+      <c r="F87" s="35">
         <v>65</v>
       </c>
       <c r="G87" s="37"/>
-      <c r="I87" s="35" t="n">
+      <c r="I87" s="35">
         <v>65</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="n">
+    <row r="88" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A88">
         <v>1832</v>
       </c>
-      <c r="B88" s="26" t="n">
+      <c r="B88" s="26">
         <v>67</v>
       </c>
-      <c r="C88" s="38" t="n">
+      <c r="C88" s="38">
         <v>67</v>
       </c>
       <c r="D88" s="48" t="s">
@@ -2768,28 +2981,28 @@
       <c r="E88" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="F88" s="35" t="n">
+      <c r="F88" s="35">
         <v>67</v>
       </c>
       <c r="G88" s="37"/>
-      <c r="H88" s="0" t="s">
+      <c r="H88" t="s">
         <v>53</v>
       </c>
-      <c r="I88" s="38" t="n">
+      <c r="I88" s="38">
         <v>67</v>
       </c>
-      <c r="J88" s="0" t="s">
+      <c r="J88" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="n">
+    <row r="89" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A89">
         <v>1854</v>
       </c>
-      <c r="B89" s="26" t="n">
+      <c r="B89" s="26">
         <v>69</v>
       </c>
-      <c r="C89" s="35" t="n">
+      <c r="C89" s="35">
         <v>69</v>
       </c>
       <c r="D89" s="36" t="s">
@@ -2798,50 +3011,50 @@
       <c r="E89" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="F89" s="35" t="n">
+      <c r="F89" s="35">
         <v>69</v>
       </c>
       <c r="G89" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="H89" s="0" t="s">
+      <c r="H89" t="s">
         <v>45</v>
       </c>
-      <c r="I89" s="35" t="n">
+      <c r="I89" s="35">
         <v>69</v>
       </c>
-      <c r="J89" s="0" t="s">
+      <c r="J89" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="n">
+    <row r="90" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90">
         <v>1875</v>
       </c>
-      <c r="B90" s="12" t="n">
+      <c r="B90" s="12">
         <v>1875</v>
       </c>
-      <c r="C90" s="16" t="n">
+      <c r="C90" s="16">
         <v>1875</v>
       </c>
       <c r="D90" s="17"/>
       <c r="E90" s="37"/>
-      <c r="F90" s="16" t="n">
+      <c r="F90" s="16">
         <v>1875</v>
       </c>
       <c r="G90" s="29"/>
-      <c r="I90" s="16" t="n">
+      <c r="I90" s="16">
         <v>1875</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="n">
+    <row r="91" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A91">
         <v>1901</v>
       </c>
-      <c r="B91" s="26" t="n">
+      <c r="B91" s="26">
         <v>71</v>
       </c>
-      <c r="C91" s="43" t="n">
+      <c r="C91" s="43">
         <v>71</v>
       </c>
       <c r="D91" s="49" t="s">
@@ -2850,275 +3063,275 @@
       <c r="E91" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="F91" s="35" t="n">
+      <c r="F91" s="35">
         <v>71</v>
       </c>
       <c r="G91" s="37"/>
-      <c r="H91" s="0" t="s">
+      <c r="H91" t="s">
         <v>40</v>
       </c>
-      <c r="I91" s="50" t="n">
+      <c r="I91" s="50">
         <v>71</v>
       </c>
-      <c r="J91" s="0" t="s">
+      <c r="J91" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="n">
+    <row r="92" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A92">
         <v>1927</v>
       </c>
-      <c r="B92" s="26" t="n">
+      <c r="B92" s="26">
         <v>1927</v>
       </c>
-      <c r="C92" s="45" t="n">
+      <c r="C92" s="45">
         <v>1927</v>
       </c>
       <c r="D92" s="46"/>
       <c r="E92" s="47"/>
-      <c r="F92" s="45" t="n">
+      <c r="F92" s="45">
         <v>1927</v>
       </c>
       <c r="G92" s="47" t="s">
         <v>44</v>
       </c>
       <c r="H92" s="22"/>
-      <c r="I92" s="45" t="n">
+      <c r="I92" s="45">
         <v>1927</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="n">
+    <row r="93" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A93">
         <v>1946</v>
       </c>
-      <c r="B93" s="26" t="n">
+      <c r="B93" s="26">
         <v>73</v>
       </c>
-      <c r="C93" s="35" t="n">
+      <c r="C93" s="35">
         <v>73</v>
       </c>
       <c r="D93" s="36"/>
       <c r="E93" s="37"/>
-      <c r="F93" s="35" t="n">
+      <c r="F93" s="35">
         <v>73</v>
       </c>
       <c r="G93" s="37"/>
-      <c r="I93" s="35" t="n">
+      <c r="I93" s="35">
         <v>73</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="n">
+    <row r="94" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A94">
         <v>1970</v>
       </c>
-      <c r="B94" s="26" t="n">
+      <c r="B94" s="26">
         <v>1970</v>
       </c>
-      <c r="C94" s="27" t="n">
+      <c r="C94" s="27">
         <v>1970</v>
       </c>
       <c r="D94" s="28"/>
       <c r="E94" s="37"/>
-      <c r="F94" s="38" t="n">
+      <c r="F94" s="38">
         <v>1970</v>
       </c>
       <c r="G94" s="30"/>
-      <c r="I94" s="27" t="n">
+      <c r="I94" s="27">
         <v>1970</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="n">
+    <row r="95" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95">
         <v>1985</v>
       </c>
-      <c r="B95" s="26" t="n">
+      <c r="B95" s="26">
         <v>75</v>
       </c>
-      <c r="C95" s="35" t="n">
+      <c r="C95" s="35">
         <v>75</v>
       </c>
       <c r="D95" s="36"/>
       <c r="E95" s="37"/>
-      <c r="F95" s="35" t="n">
+      <c r="F95" s="35">
         <v>75</v>
       </c>
       <c r="G95" s="37"/>
-      <c r="I95" s="35" t="n">
+      <c r="I95" s="35">
         <v>75</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="n">
+    <row r="96" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A96">
         <v>2004</v>
       </c>
-      <c r="B96" s="12" t="n">
+      <c r="B96" s="12">
         <v>2004</v>
       </c>
-      <c r="C96" s="16" t="n">
+      <c r="C96" s="16">
         <v>2004</v>
       </c>
       <c r="D96" s="17"/>
       <c r="E96" s="37"/>
-      <c r="F96" s="16" t="n">
+      <c r="F96" s="16">
         <v>2004</v>
       </c>
       <c r="G96" s="37"/>
-      <c r="I96" s="16" t="n">
+      <c r="I96" s="16">
         <v>2004</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="n">
+    <row r="97" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97">
         <v>2023</v>
       </c>
-      <c r="B97" s="26" t="n">
+      <c r="B97" s="26">
         <v>77</v>
       </c>
-      <c r="C97" s="35" t="n">
+      <c r="C97" s="35">
         <v>77</v>
       </c>
       <c r="D97" s="36"/>
       <c r="E97" s="37"/>
-      <c r="F97" s="26" t="n">
+      <c r="F97" s="26">
         <v>77</v>
       </c>
       <c r="G97" s="51"/>
-      <c r="I97" s="35" t="n">
+      <c r="I97" s="35">
         <v>77</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="n">
+    <row r="98" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A98">
         <v>2043</v>
       </c>
-      <c r="B98" s="12" t="n">
+      <c r="B98" s="12">
         <v>2043</v>
       </c>
-      <c r="C98" s="16" t="n">
+      <c r="C98" s="16">
         <v>2043</v>
       </c>
       <c r="D98" s="17"/>
       <c r="E98" s="37"/>
-      <c r="F98" s="33" t="n">
+      <c r="F98" s="33">
         <v>2043</v>
       </c>
       <c r="G98" s="51"/>
-      <c r="I98" s="16" t="n">
+      <c r="I98" s="16">
         <v>2043</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="n">
+    <row r="99" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A99">
         <v>2062</v>
       </c>
-      <c r="B99" s="26" t="n">
+      <c r="B99" s="26">
         <v>2062</v>
       </c>
-      <c r="C99" s="40" t="n">
+      <c r="C99" s="40">
         <v>2062</v>
       </c>
       <c r="D99" s="41"/>
       <c r="E99" s="42"/>
-      <c r="F99" s="35" t="n">
+      <c r="F99" s="35">
         <v>2062</v>
       </c>
       <c r="G99" s="37"/>
-      <c r="I99" s="40" t="n">
+      <c r="I99" s="40">
         <v>2062</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="n">
+    <row r="100" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A100">
         <v>2098</v>
       </c>
-      <c r="B100" s="26" t="n">
+      <c r="B100" s="26">
         <v>79</v>
       </c>
-      <c r="C100" s="35" t="n">
+      <c r="C100" s="35">
         <v>79</v>
       </c>
       <c r="D100" s="36"/>
       <c r="E100" s="37"/>
-      <c r="F100" s="38" t="n">
+      <c r="F100" s="38">
         <v>79</v>
       </c>
       <c r="G100" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="I100" s="35" t="n">
+      <c r="I100" s="35">
         <v>79</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="n">
+    <row r="101" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A101">
         <v>2118</v>
       </c>
-      <c r="B101" s="12" t="n">
+      <c r="B101" s="12">
         <v>2118</v>
       </c>
-      <c r="C101" s="16" t="n">
+      <c r="C101" s="16">
         <v>2118</v>
       </c>
       <c r="D101" s="17"/>
       <c r="E101" s="37"/>
-      <c r="F101" s="16" t="n">
+      <c r="F101" s="16">
         <v>2118</v>
       </c>
       <c r="G101" s="37"/>
-      <c r="I101" s="16" t="n">
+      <c r="I101" s="16">
         <v>2118</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="n">
+    <row r="102" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A102">
         <v>2140</v>
       </c>
-      <c r="B102" s="26" t="n">
+      <c r="B102" s="26">
         <v>81</v>
       </c>
-      <c r="C102" s="35" t="n">
+      <c r="C102" s="35">
         <v>81</v>
       </c>
       <c r="D102" s="36"/>
       <c r="E102" s="37"/>
-      <c r="F102" s="35" t="n">
+      <c r="F102" s="35">
         <v>81</v>
       </c>
       <c r="G102" s="37"/>
-      <c r="I102" s="35" t="n">
+      <c r="I102" s="35">
         <v>81</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="n">
+    <row r="103" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A103">
         <v>2188</v>
       </c>
-      <c r="B103" s="26" t="n">
+      <c r="B103" s="26">
         <v>83</v>
       </c>
-      <c r="C103" s="35" t="n">
+      <c r="C103" s="35">
         <v>83</v>
       </c>
       <c r="D103" s="36"/>
       <c r="E103" s="37"/>
-      <c r="F103" s="38" t="n">
+      <c r="F103" s="38">
         <v>83</v>
       </c>
       <c r="G103" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="I103" s="35" t="n">
+      <c r="I103" s="35">
         <v>83</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="n">
+    <row r="104" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A104">
         <v>2212</v>
       </c>
-      <c r="B104" s="26" t="n">
+      <c r="B104" s="26">
         <v>2212</v>
       </c>
-      <c r="C104" s="40" t="n">
+      <c r="C104" s="40">
         <v>2212</v>
       </c>
       <c r="D104" s="41" t="s">
@@ -3127,364 +3340,357 @@
       <c r="E104" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="F104" s="38" t="n">
+      <c r="F104" s="38">
         <v>2212</v>
       </c>
       <c r="G104" s="39"/>
-      <c r="H104" s="0" t="s">
+      <c r="H104" t="s">
         <v>45</v>
       </c>
-      <c r="I104" s="40" t="n">
+      <c r="I104" s="40">
         <v>2212</v>
       </c>
-      <c r="J104" s="0" t="s">
+      <c r="J104" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="n">
+    <row r="105" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A105">
         <v>2232</v>
       </c>
-      <c r="B105" s="12" t="n">
+      <c r="B105" s="12">
         <v>85</v>
       </c>
-      <c r="C105" s="13" t="n">
+      <c r="C105" s="13">
         <v>85</v>
       </c>
       <c r="D105" s="14"/>
       <c r="E105" s="15"/>
-      <c r="F105" s="13" t="n">
+      <c r="F105" s="13">
         <v>85</v>
       </c>
       <c r="G105" s="15"/>
-      <c r="I105" s="13" t="n">
+      <c r="I105" s="13">
         <v>85</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="n">
+    <row r="106" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A106">
         <v>2257</v>
       </c>
-      <c r="B106" s="12" t="n">
+      <c r="B106" s="12">
         <v>87</v>
       </c>
-      <c r="C106" s="13" t="n">
+      <c r="C106" s="13">
         <v>87</v>
       </c>
       <c r="D106" s="14"/>
       <c r="E106" s="15"/>
-      <c r="F106" s="13" t="n">
+      <c r="F106" s="13">
         <v>87</v>
       </c>
       <c r="G106" s="15"/>
-      <c r="I106" s="13" t="n">
+      <c r="I106" s="13">
         <v>87</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="n">
+    <row r="107" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A107">
         <v>2304</v>
       </c>
-      <c r="B107" s="12" t="n">
+      <c r="B107" s="12">
         <v>89</v>
       </c>
-      <c r="C107" s="13" t="n">
+      <c r="C107" s="13">
         <v>89</v>
       </c>
       <c r="D107" s="14"/>
       <c r="E107" s="15"/>
-      <c r="F107" s="13" t="n">
+      <c r="F107" s="13">
         <v>89</v>
       </c>
       <c r="G107" s="15"/>
-      <c r="I107" s="13" t="n">
+      <c r="I107" s="13">
         <v>89</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="n">
+    <row r="108" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A108">
         <v>2325</v>
       </c>
-      <c r="B108" s="26" t="n">
+      <c r="B108" s="26">
         <v>2325</v>
       </c>
-      <c r="C108" s="27" t="n">
+      <c r="C108" s="27">
         <v>2325</v>
       </c>
       <c r="D108" s="28"/>
       <c r="E108" s="29"/>
-      <c r="F108" s="45" t="n">
+      <c r="F108" s="45">
         <v>2325</v>
       </c>
       <c r="G108" s="51"/>
-      <c r="I108" s="27" t="n">
+      <c r="I108" s="27">
         <v>2325</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="n">
+    <row r="109" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A109">
         <v>2348</v>
       </c>
-      <c r="B109" s="26" t="n">
+      <c r="B109" s="26">
         <v>91</v>
       </c>
-      <c r="C109" s="35" t="n">
+      <c r="C109" s="35">
         <v>91</v>
       </c>
       <c r="D109" s="36"/>
       <c r="E109" s="37"/>
-      <c r="F109" s="35" t="n">
+      <c r="F109" s="35">
         <v>91</v>
       </c>
       <c r="G109" s="37"/>
-      <c r="I109" s="35" t="n">
+      <c r="I109" s="35">
         <v>91</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="n">
+    <row r="110" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A110">
         <v>2386</v>
       </c>
-      <c r="B110" s="26" t="n">
+      <c r="B110" s="26">
         <v>93</v>
       </c>
-      <c r="C110" s="35" t="n">
+      <c r="C110" s="35">
         <v>93</v>
       </c>
       <c r="D110" s="36"/>
       <c r="E110" s="37"/>
-      <c r="F110" s="35" t="n">
+      <c r="F110" s="35">
         <v>93</v>
       </c>
       <c r="G110" s="37"/>
-      <c r="I110" s="35" t="n">
+      <c r="I110" s="35">
         <v>93</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="n">
+    <row r="111" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A111">
         <v>2422</v>
       </c>
-      <c r="B111" s="26" t="n">
+      <c r="B111" s="26">
         <v>95</v>
       </c>
-      <c r="C111" s="35" t="n">
+      <c r="C111" s="35">
         <v>95</v>
       </c>
       <c r="D111" s="36"/>
       <c r="E111" s="37"/>
-      <c r="F111" s="35" t="n">
+      <c r="F111" s="35">
         <v>95</v>
       </c>
       <c r="G111" s="37"/>
-      <c r="I111" s="35" t="n">
+      <c r="I111" s="35">
         <v>95</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="n">
+    <row r="112" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A112">
         <v>2463</v>
       </c>
-      <c r="B112" s="26" t="n">
+      <c r="B112" s="26">
         <v>2463</v>
       </c>
-      <c r="C112" s="38" t="n">
+      <c r="C112" s="38">
         <v>2463</v>
       </c>
       <c r="D112" s="52"/>
       <c r="E112" s="30"/>
-      <c r="F112" s="27" t="n">
+      <c r="F112" s="27">
         <v>2463</v>
       </c>
       <c r="G112" s="30"/>
-      <c r="I112" s="38" t="n">
+      <c r="I112" s="38">
         <v>2463</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="n">
+    <row r="113" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A113">
         <v>2474</v>
       </c>
-      <c r="B113" s="26" t="n">
+      <c r="B113" s="26">
         <v>97</v>
       </c>
-      <c r="C113" s="35" t="n">
+      <c r="C113" s="35">
         <v>97</v>
       </c>
       <c r="D113" s="36"/>
       <c r="E113" s="37"/>
-      <c r="F113" s="35" t="n">
+      <c r="F113" s="35">
         <v>97</v>
       </c>
       <c r="G113" s="37"/>
-      <c r="I113" s="35" t="n">
+      <c r="I113" s="35">
         <v>97</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="n">
+    <row r="114" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A114">
         <v>2502</v>
       </c>
-      <c r="B114" s="26" t="n">
+      <c r="B114" s="26">
         <v>99</v>
       </c>
-      <c r="C114" s="35" t="n">
+      <c r="C114" s="35">
         <v>99</v>
       </c>
       <c r="D114" s="36"/>
       <c r="E114" s="37"/>
-      <c r="F114" s="43" t="n">
+      <c r="F114" s="43">
         <v>99</v>
       </c>
       <c r="G114" s="44"/>
-      <c r="I114" s="35" t="n">
+      <c r="I114" s="35">
         <v>99</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="n">
+    <row r="115" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A115">
         <v>2515</v>
       </c>
-      <c r="B115" s="12" t="n">
+      <c r="B115" s="12">
         <v>2515</v>
       </c>
-      <c r="C115" s="16" t="n">
+      <c r="C115" s="16">
         <v>2515</v>
       </c>
       <c r="D115" s="17"/>
       <c r="E115" s="37"/>
-      <c r="F115" s="16" t="n">
+      <c r="F115" s="16">
         <v>2515</v>
       </c>
       <c r="G115" s="44"/>
-      <c r="I115" s="16" t="n">
+      <c r="I115" s="16">
         <v>2515</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="n">
+    <row r="116" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A116">
         <v>2547</v>
       </c>
-      <c r="B116" s="12" t="n">
+      <c r="B116" s="12">
         <v>101</v>
       </c>
-      <c r="C116" s="13" t="n">
+      <c r="C116" s="13">
         <v>101</v>
       </c>
       <c r="D116" s="14"/>
       <c r="E116" s="15"/>
-      <c r="F116" s="13" t="n">
+      <c r="F116" s="13">
         <v>101</v>
       </c>
       <c r="G116" s="15"/>
-      <c r="I116" s="13" t="n">
+      <c r="I116" s="13">
         <v>101</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="n">
+    <row r="117" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A117">
         <v>2567</v>
       </c>
-      <c r="B117" s="12" t="n">
+      <c r="B117" s="12">
         <v>2567</v>
       </c>
-      <c r="C117" s="16" t="n">
+      <c r="C117" s="16">
         <v>2567</v>
       </c>
       <c r="D117" s="17"/>
       <c r="E117" s="15"/>
-      <c r="F117" s="16" t="n">
+      <c r="F117" s="16">
         <v>2567</v>
       </c>
       <c r="G117" s="15"/>
-      <c r="I117" s="16" t="n">
+      <c r="I117" s="16">
         <v>2567</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="n">
+    <row r="118" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A118">
         <v>2590</v>
       </c>
-      <c r="B118" s="12" t="n">
+      <c r="B118" s="12">
         <v>103</v>
       </c>
-      <c r="C118" s="13" t="n">
+      <c r="C118" s="13">
         <v>103</v>
       </c>
       <c r="D118" s="14"/>
       <c r="E118" s="15"/>
-      <c r="F118" s="13" t="n">
+      <c r="F118" s="13">
         <v>103</v>
       </c>
       <c r="G118" s="15"/>
-      <c r="I118" s="13" t="n">
+      <c r="I118" s="13">
         <v>103</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="20"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D127"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK127"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A75" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D98" activeCellId="0" sqref="D98"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="53" width="14.4251012145749"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="53" width="19.1376518218624"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="53" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="54" width="26.4210526315789"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="54" width="8.85425101214575"/>
+    <col min="1" max="1" width="14.42578125" style="53"/>
+    <col min="2" max="2" width="19.140625" style="53"/>
+    <col min="3" max="3" width="12.85546875" style="53"/>
+    <col min="4" max="4" width="26.42578125" style="54"/>
+    <col min="5" max="1025" width="8.85546875" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="0"/>
-      <c r="C1" s="0"/>
-      <c r="D1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+    </row>
+    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="0"/>
-      <c r="C2" s="0"/>
-      <c r="D2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+    </row>
+    <row r="3" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="0"/>
-      <c r="C3" s="0"/>
-      <c r="D3" s="0"/>
-    </row>
-    <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+    </row>
+    <row r="4" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="0"/>
-      <c r="C4" s="0"/>
+      <c r="B4"/>
+      <c r="C4"/>
       <c r="D4" s="58"/>
     </row>
-    <row r="5" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
         <v>13</v>
       </c>
@@ -3496,771 +3702,771 @@
       </c>
       <c r="D5" s="60"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="61" t="n">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="61">
         <v>11</v>
       </c>
       <c r="B6" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="0"/>
+      <c r="C6"/>
       <c r="D6" s="61"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="62" t="n">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="62">
         <v>38</v>
       </c>
-      <c r="B7" s="62" t="n">
+      <c r="B7" s="62">
         <v>38</v>
       </c>
-      <c r="C7" s="0"/>
+      <c r="C7"/>
       <c r="D7" s="62"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="62" t="n">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="62">
         <v>58</v>
       </c>
-      <c r="B8" s="62" t="n">
+      <c r="B8" s="62">
         <v>58</v>
       </c>
-      <c r="C8" s="0"/>
+      <c r="C8"/>
       <c r="D8" s="62"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="62" t="n">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="62">
         <v>84</v>
       </c>
-      <c r="B9" s="62" t="n">
+      <c r="B9" s="62">
         <v>84</v>
       </c>
-      <c r="C9" s="0"/>
+      <c r="C9"/>
       <c r="D9" s="62"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="62" t="n">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="62">
         <v>105</v>
       </c>
-      <c r="B10" s="62" t="n">
+      <c r="B10" s="62">
         <v>105</v>
       </c>
-      <c r="C10" s="0"/>
+      <c r="C10"/>
       <c r="D10" s="62"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="61" t="n">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="61">
         <v>127</v>
       </c>
       <c r="B11" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="0"/>
+      <c r="C11"/>
       <c r="D11" s="61"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="62" t="n">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="62">
         <v>151</v>
       </c>
-      <c r="B12" s="62" t="n">
+      <c r="B12" s="62">
         <v>151</v>
       </c>
-      <c r="C12" s="0"/>
+      <c r="C12"/>
       <c r="D12" s="62"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="62" t="n">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="62">
         <v>175</v>
       </c>
-      <c r="B13" s="62" t="n">
+      <c r="B13" s="62">
         <v>175</v>
       </c>
-      <c r="C13" s="0"/>
+      <c r="C13"/>
       <c r="D13" s="62"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="63" t="n">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="63">
         <v>198</v>
       </c>
-      <c r="B14" s="63" t="n">
+      <c r="B14" s="63">
         <v>198</v>
       </c>
-      <c r="C14" s="0"/>
+      <c r="C14"/>
       <c r="D14" s="64"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="61" t="n">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="61">
         <v>220</v>
       </c>
       <c r="B15" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="0"/>
+      <c r="C15"/>
       <c r="D15" s="61"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="61" t="n">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="61">
         <v>243</v>
       </c>
       <c r="B16" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="0"/>
+      <c r="C16"/>
       <c r="D16" s="61"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="62" t="n">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="62">
         <v>265</v>
       </c>
-      <c r="B17" s="62" t="n">
+      <c r="B17" s="62">
         <v>265</v>
       </c>
-      <c r="C17" s="0"/>
+      <c r="C17"/>
       <c r="D17" s="62"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="62" t="n">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="62">
         <v>291</v>
       </c>
-      <c r="B18" s="62" t="n">
+      <c r="B18" s="62">
         <v>291</v>
       </c>
-      <c r="C18" s="0"/>
+      <c r="C18"/>
       <c r="D18" s="62"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="62" t="n">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="62">
         <v>313</v>
       </c>
-      <c r="B19" s="62" t="n">
+      <c r="B19" s="62">
         <v>313</v>
       </c>
-      <c r="C19" s="0"/>
+      <c r="C19"/>
       <c r="D19" s="62"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="61" t="n">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="61">
         <v>334</v>
       </c>
       <c r="B20" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="0"/>
+      <c r="C20"/>
       <c r="D20" s="61"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="62" t="n">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="62">
         <v>356</v>
       </c>
-      <c r="B21" s="62" t="n">
+      <c r="B21" s="62">
         <v>356</v>
       </c>
-      <c r="C21" s="0"/>
+      <c r="C21"/>
       <c r="D21" s="62"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="62" t="n">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="62">
         <v>372</v>
       </c>
-      <c r="B22" s="62" t="n">
+      <c r="B22" s="62">
         <v>372</v>
       </c>
-      <c r="C22" s="0"/>
+      <c r="C22"/>
       <c r="D22" s="62"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="62" t="n">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="62">
         <v>388</v>
       </c>
-      <c r="B23" s="62" t="n">
+      <c r="B23" s="62">
         <v>388</v>
       </c>
-      <c r="C23" s="0"/>
+      <c r="C23"/>
       <c r="D23" s="62"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="61" t="n">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="61">
         <v>410</v>
       </c>
       <c r="B24" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="0"/>
+      <c r="C24"/>
       <c r="D24" s="61"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="62" t="n">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="62">
         <v>426</v>
       </c>
-      <c r="B25" s="62" t="n">
+      <c r="B25" s="62">
         <v>426</v>
       </c>
-      <c r="C25" s="0"/>
+      <c r="C25"/>
       <c r="D25" s="62"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="62" t="n">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="62">
         <v>447</v>
       </c>
-      <c r="B26" s="62" t="n">
+      <c r="B26" s="62">
         <v>447</v>
       </c>
-      <c r="C26" s="0"/>
+      <c r="C26"/>
       <c r="D26" s="62"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="62" t="n">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="62">
         <v>464</v>
       </c>
-      <c r="B27" s="62" t="n">
+      <c r="B27" s="62">
         <v>464</v>
       </c>
-      <c r="C27" s="0"/>
+      <c r="C27"/>
       <c r="D27" s="62"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="61" t="n">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="61">
         <v>486</v>
       </c>
       <c r="B28" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="0"/>
+      <c r="C28"/>
       <c r="D28" s="61"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="62" t="n">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="62">
         <v>505</v>
       </c>
-      <c r="B29" s="62" t="n">
+      <c r="B29" s="62">
         <v>505</v>
       </c>
-      <c r="C29" s="0"/>
+      <c r="C29"/>
       <c r="D29" s="62"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="62" t="n">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="62">
         <v>531</v>
       </c>
-      <c r="B30" s="62" t="n">
+      <c r="B30" s="62">
         <v>531</v>
       </c>
-      <c r="C30" s="0"/>
+      <c r="C30"/>
       <c r="D30" s="62"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="62" t="n">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="62">
         <v>556</v>
       </c>
-      <c r="B31" s="62" t="n">
+      <c r="B31" s="62">
         <v>556</v>
       </c>
-      <c r="C31" s="0"/>
+      <c r="C31"/>
       <c r="D31" s="62"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="61" t="n">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="61">
         <v>578</v>
       </c>
       <c r="B32" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="0"/>
+      <c r="C32"/>
       <c r="D32" s="61"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="62" t="n">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="62">
         <v>600</v>
       </c>
-      <c r="B33" s="62" t="n">
+      <c r="B33" s="62">
         <v>600</v>
       </c>
-      <c r="C33" s="0"/>
+      <c r="C33"/>
       <c r="D33" s="62"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="61" t="n">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="61">
         <v>621</v>
       </c>
       <c r="B34" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="0"/>
+      <c r="C34"/>
       <c r="D34" s="61"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="62" t="n">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="62">
         <v>650</v>
       </c>
-      <c r="B35" s="62" t="n">
+      <c r="B35" s="62">
         <v>650</v>
       </c>
-      <c r="C35" s="0"/>
+      <c r="C35"/>
       <c r="D35" s="62"/>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="62" t="n">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="62">
         <v>671</v>
       </c>
-      <c r="B36" s="62" t="n">
+      <c r="B36" s="62">
         <v>671</v>
       </c>
-      <c r="C36" s="0"/>
+      <c r="C36"/>
       <c r="D36" s="62"/>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="61" t="n">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="61">
         <v>693</v>
       </c>
       <c r="B37" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="0"/>
+      <c r="C37"/>
       <c r="D37" s="61"/>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="62" t="n">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="62">
         <v>713</v>
       </c>
-      <c r="B38" s="62" t="n">
+      <c r="B38" s="62">
         <v>713</v>
       </c>
-      <c r="C38" s="0"/>
+      <c r="C38"/>
       <c r="D38" s="62"/>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="62" t="n">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="62">
         <v>735</v>
       </c>
-      <c r="B39" s="62" t="n">
+      <c r="B39" s="62">
         <v>735</v>
       </c>
-      <c r="C39" s="0"/>
+      <c r="C39"/>
       <c r="D39" s="62"/>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="62" t="n">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="62">
         <v>750</v>
       </c>
-      <c r="B40" s="62" t="n">
+      <c r="B40" s="62">
         <v>750</v>
       </c>
-      <c r="C40" s="0"/>
+      <c r="C40"/>
       <c r="D40" s="62"/>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="62" t="n">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="62">
         <v>768</v>
       </c>
-      <c r="B41" s="62" t="n">
+      <c r="B41" s="62">
         <v>768</v>
       </c>
-      <c r="C41" s="0"/>
+      <c r="C41"/>
       <c r="D41" s="62"/>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="61" t="n">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="61">
         <v>788</v>
       </c>
       <c r="B42" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="C42" s="0"/>
+      <c r="C42"/>
       <c r="D42" s="61"/>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="62" t="n">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="62">
         <v>807</v>
       </c>
-      <c r="B43" s="62" t="n">
+      <c r="B43" s="62">
         <v>807</v>
       </c>
-      <c r="C43" s="0"/>
+      <c r="C43"/>
       <c r="D43" s="62"/>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="62" t="n">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="62">
         <v>825</v>
       </c>
-      <c r="B44" s="62" t="n">
+      <c r="B44" s="62">
         <v>825</v>
       </c>
-      <c r="C44" s="0"/>
+      <c r="C44"/>
       <c r="D44" s="62"/>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="62" t="n">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="62">
         <v>844</v>
       </c>
-      <c r="B45" s="62" t="n">
+      <c r="B45" s="62">
         <v>844</v>
       </c>
-      <c r="C45" s="0"/>
+      <c r="C45"/>
       <c r="D45" s="62"/>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="61" t="n">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="61">
         <v>865</v>
       </c>
       <c r="B46" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="0"/>
+      <c r="C46"/>
       <c r="D46" s="61"/>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="62" t="n">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="62">
         <v>885</v>
       </c>
-      <c r="B47" s="62" t="n">
+      <c r="B47" s="62">
         <v>885</v>
       </c>
-      <c r="C47" s="0"/>
+      <c r="C47"/>
       <c r="D47" s="62"/>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="62" t="n">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="62">
         <v>911</v>
       </c>
-      <c r="B48" s="62" t="n">
+      <c r="B48" s="62">
         <v>911</v>
       </c>
-      <c r="C48" s="0"/>
+      <c r="C48"/>
       <c r="D48" s="62"/>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="62" t="n">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="62">
         <v>937</v>
       </c>
-      <c r="B49" s="62" t="n">
+      <c r="B49" s="62">
         <v>937</v>
       </c>
-      <c r="C49" s="0"/>
+      <c r="C49"/>
       <c r="D49" s="62"/>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="61" t="n">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="61">
         <v>958</v>
       </c>
       <c r="B50" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="C50" s="0"/>
+      <c r="C50"/>
       <c r="D50" s="61"/>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="62" t="n">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="62">
         <v>979</v>
       </c>
-      <c r="B51" s="62" t="n">
+      <c r="B51" s="62">
         <v>979</v>
       </c>
-      <c r="C51" s="0"/>
+      <c r="C51"/>
       <c r="D51" s="62"/>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="62" t="n">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="62">
         <v>1000</v>
       </c>
-      <c r="B52" s="62" t="n">
+      <c r="B52" s="62">
         <v>1000</v>
       </c>
-      <c r="C52" s="0"/>
+      <c r="C52"/>
       <c r="D52" s="62"/>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="61" t="n">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="61">
         <v>1030</v>
       </c>
       <c r="B53" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="C53" s="0"/>
+      <c r="C53"/>
       <c r="D53" s="61"/>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="62" t="n">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="62">
         <v>1051</v>
       </c>
-      <c r="B54" s="62" t="n">
+      <c r="B54" s="62">
         <v>1051</v>
       </c>
-      <c r="C54" s="0"/>
+      <c r="C54"/>
       <c r="D54" s="62"/>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="61" t="n">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="61">
         <v>1073</v>
       </c>
       <c r="B55" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="C55" s="0"/>
+      <c r="C55"/>
       <c r="D55" s="61"/>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="62" t="n">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="62">
         <v>1094</v>
       </c>
-      <c r="B56" s="62" t="n">
+      <c r="B56" s="62">
         <v>1094</v>
       </c>
-      <c r="C56" s="0"/>
+      <c r="C56"/>
       <c r="D56" s="62"/>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="61" t="n">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="61">
         <v>1114</v>
       </c>
       <c r="B57" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="C57" s="0"/>
+      <c r="C57"/>
       <c r="D57" s="61"/>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="62" t="n">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="62">
         <v>1147</v>
       </c>
-      <c r="B58" s="62" t="n">
+      <c r="B58" s="62">
         <v>1147</v>
       </c>
-      <c r="C58" s="0"/>
+      <c r="C58"/>
       <c r="D58" s="62"/>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="63" t="n">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="63">
         <v>1167</v>
       </c>
-      <c r="B59" s="63" t="n">
+      <c r="B59" s="63">
         <v>1167</v>
       </c>
-      <c r="C59" s="0"/>
+      <c r="C59"/>
       <c r="D59" s="64"/>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="61" t="n">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="61">
         <v>1188</v>
       </c>
       <c r="B60" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="C60" s="0"/>
+      <c r="C60"/>
       <c r="D60" s="61"/>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="62" t="n">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="62">
         <v>1206</v>
       </c>
-      <c r="B61" s="62" t="n">
+      <c r="B61" s="62">
         <v>1206</v>
       </c>
-      <c r="C61" s="0"/>
+      <c r="C61"/>
       <c r="D61" s="62"/>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="62" t="n">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="62">
         <v>1226</v>
       </c>
-      <c r="B62" s="62" t="n">
+      <c r="B62" s="62">
         <v>1226</v>
       </c>
-      <c r="C62" s="0"/>
+      <c r="C62"/>
       <c r="D62" s="62"/>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="61" t="n">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="61">
         <v>1243</v>
       </c>
       <c r="B63" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="C63" s="0"/>
+      <c r="C63"/>
       <c r="D63" s="61"/>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="62" t="n">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="62">
         <v>1264</v>
       </c>
-      <c r="B64" s="62" t="n">
+      <c r="B64" s="62">
         <v>1264</v>
       </c>
-      <c r="C64" s="0"/>
+      <c r="C64"/>
       <c r="D64" s="62"/>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="61" t="n">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="61">
         <v>1283</v>
       </c>
       <c r="B65" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="C65" s="0"/>
+      <c r="C65"/>
       <c r="D65" s="61"/>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="62" t="n">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="62">
         <v>1302</v>
       </c>
-      <c r="B66" s="62" t="n">
+      <c r="B66" s="62">
         <v>1302</v>
       </c>
-      <c r="C66" s="0"/>
+      <c r="C66"/>
       <c r="D66" s="62"/>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="61" t="n">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="61">
         <v>1318</v>
       </c>
       <c r="B67" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="C67" s="0"/>
+      <c r="C67"/>
       <c r="D67" s="61"/>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="62" t="n">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="62">
         <v>1338</v>
       </c>
-      <c r="B68" s="62" t="n">
+      <c r="B68" s="62">
         <v>1338</v>
       </c>
-      <c r="C68" s="0"/>
+      <c r="C68"/>
       <c r="D68" s="62"/>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="61" t="n">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="61">
         <v>1359</v>
       </c>
       <c r="B69" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="C69" s="0"/>
+      <c r="C69"/>
       <c r="D69" s="61"/>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="62" t="n">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="62">
         <v>1379</v>
       </c>
-      <c r="B70" s="62" t="n">
+      <c r="B70" s="62">
         <v>1379</v>
       </c>
-      <c r="C70" s="0"/>
+      <c r="C70"/>
       <c r="D70" s="62"/>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="61" t="n">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="61">
         <v>1401</v>
       </c>
       <c r="B71" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="C71" s="0"/>
+      <c r="C71"/>
       <c r="D71" s="61"/>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="65" t="n">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="65">
         <v>1432</v>
       </c>
-      <c r="B72" s="65" t="n">
+      <c r="B72" s="65">
         <v>1432</v>
       </c>
-      <c r="C72" s="0"/>
+      <c r="C72"/>
       <c r="D72" s="64"/>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="61" t="n">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="61">
         <v>1452</v>
       </c>
       <c r="B73" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="C73" s="0"/>
+      <c r="C73"/>
       <c r="D73" s="61"/>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="63" t="n">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="63">
         <v>1474</v>
       </c>
-      <c r="B74" s="63" t="n">
+      <c r="B74" s="63">
         <v>1474</v>
       </c>
-      <c r="C74" s="0"/>
+      <c r="C74"/>
       <c r="D74" s="64"/>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="61" t="n">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="61">
         <v>1493</v>
       </c>
       <c r="B75" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="C75" s="0"/>
+      <c r="C75"/>
       <c r="D75" s="61"/>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="62" t="n">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="62">
         <v>1514</v>
       </c>
-      <c r="B76" s="62" t="n">
+      <c r="B76" s="62">
         <v>1514</v>
       </c>
-      <c r="C76" s="0"/>
+      <c r="C76"/>
       <c r="D76" s="62"/>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="61" t="n">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="61">
         <v>1527</v>
       </c>
       <c r="B77" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="C77" s="0"/>
+      <c r="C77"/>
       <c r="D77" s="61"/>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="62" t="n">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="62">
         <v>1547</v>
       </c>
-      <c r="B78" s="62" t="n">
+      <c r="B78" s="62">
         <v>1547</v>
       </c>
-      <c r="C78" s="0"/>
+      <c r="C78"/>
       <c r="D78" s="62"/>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="61" t="n">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="61">
         <v>1567</v>
       </c>
       <c r="B79" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="C79" s="0"/>
+      <c r="C79"/>
       <c r="D79" s="61"/>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="62" t="n">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="62">
         <v>1587</v>
       </c>
-      <c r="B80" s="62" t="n">
+      <c r="B80" s="62">
         <v>1587</v>
       </c>
-      <c r="C80" s="0"/>
+      <c r="C80"/>
       <c r="D80" s="62"/>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="61" t="n">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="61">
         <v>1606</v>
       </c>
       <c r="B81" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="C81" s="0"/>
+      <c r="C81"/>
       <c r="D81" s="61"/>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="62" t="n">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="62">
         <v>1625</v>
       </c>
-      <c r="B82" s="62" t="n">
+      <c r="B82" s="62">
         <v>1625</v>
       </c>
       <c r="C82" s="53" t="s">
@@ -4268,58 +4474,58 @@
       </c>
       <c r="D82" s="62"/>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="61" t="n">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="61">
         <v>1645</v>
       </c>
       <c r="B83" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="C83" s="0"/>
+      <c r="C83"/>
       <c r="D83" s="61"/>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="62" t="n">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="62">
         <v>1664</v>
       </c>
-      <c r="B84" s="62" t="n">
+      <c r="B84" s="62">
         <v>1664</v>
       </c>
-      <c r="C84" s="0"/>
+      <c r="C84"/>
       <c r="D84" s="62"/>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="63" t="n">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="63">
         <v>1684</v>
       </c>
-      <c r="B85" s="63" t="n">
+      <c r="B85" s="63">
         <v>1684</v>
       </c>
-      <c r="C85" s="0"/>
+      <c r="C85"/>
       <c r="D85" s="64"/>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="61" t="n">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="61">
         <v>1697</v>
       </c>
       <c r="B86" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="C86" s="0"/>
+      <c r="C86"/>
       <c r="D86" s="61"/>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="62" t="n">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="62">
         <v>1719</v>
       </c>
-      <c r="B87" s="62" t="n">
+      <c r="B87" s="62">
         <v>1719</v>
       </c>
-      <c r="C87" s="0"/>
+      <c r="C87"/>
       <c r="D87" s="62"/>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="61" t="n">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="61">
         <v>1739</v>
       </c>
       <c r="B88" s="61" t="s">
@@ -4330,41 +4536,41 @@
       </c>
       <c r="D88" s="61"/>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="63" t="n">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="63">
         <v>1760</v>
       </c>
-      <c r="B89" s="63" t="n">
+      <c r="B89" s="63">
         <v>1760</v>
       </c>
-      <c r="C89" s="0"/>
+      <c r="C89"/>
       <c r="D89" s="64"/>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="61" t="n">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="61">
         <v>1782</v>
       </c>
       <c r="B90" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="C90" s="0"/>
+      <c r="C90"/>
       <c r="D90" s="61"/>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="61" t="n">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="61">
         <v>1811</v>
       </c>
       <c r="B91" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="C91" s="0"/>
+      <c r="C91"/>
       <c r="D91" s="61"/>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="63" t="n">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="63">
         <v>1832</v>
       </c>
-      <c r="B92" s="63" t="n">
+      <c r="B92" s="63">
         <v>1832</v>
       </c>
       <c r="C92" s="53" t="s">
@@ -4372,8 +4578,8 @@
       </c>
       <c r="D92" s="64"/>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="61" t="n">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="61">
         <v>1854</v>
       </c>
       <c r="B93" s="61" t="s">
@@ -4384,18 +4590,18 @@
       </c>
       <c r="D93" s="61"/>
     </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="62" t="n">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="62">
         <v>1874</v>
       </c>
-      <c r="B94" s="62" t="n">
+      <c r="B94" s="62">
         <v>1874</v>
       </c>
-      <c r="C94" s="0"/>
+      <c r="C94"/>
       <c r="D94" s="62"/>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="61" t="n">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="61">
         <v>1903</v>
       </c>
       <c r="B95" s="61" t="s">
@@ -4406,151 +4612,151 @@
       </c>
       <c r="D95" s="61"/>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="63" t="n">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="63">
         <v>1926</v>
       </c>
-      <c r="B96" s="63" t="n">
+      <c r="B96" s="63">
         <v>1926</v>
       </c>
-      <c r="C96" s="0"/>
+      <c r="C96"/>
       <c r="D96" s="64"/>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="61" t="n">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="61">
         <v>1947</v>
       </c>
       <c r="B97" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="C97" s="0"/>
+      <c r="C97"/>
       <c r="D97" s="61"/>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="62" t="n">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="62">
         <v>1968</v>
       </c>
-      <c r="B98" s="62" t="n">
+      <c r="B98" s="62">
         <v>1968</v>
       </c>
-      <c r="C98" s="0"/>
+      <c r="C98"/>
       <c r="D98" s="62"/>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="61" t="n">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="61">
         <v>1985</v>
       </c>
       <c r="B99" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="C99" s="0"/>
+      <c r="C99"/>
       <c r="D99" s="61"/>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="62" t="n">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="62">
         <v>2003</v>
       </c>
-      <c r="B100" s="62" t="n">
+      <c r="B100" s="62">
         <v>2003</v>
       </c>
-      <c r="C100" s="0"/>
+      <c r="C100"/>
       <c r="D100" s="62"/>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="61" t="n">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="61">
         <v>2023</v>
       </c>
       <c r="B101" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="C101" s="0"/>
+      <c r="C101"/>
       <c r="D101" s="61"/>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="62" t="n">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="62">
         <v>2043</v>
       </c>
-      <c r="B102" s="62" t="n">
+      <c r="B102" s="62">
         <v>2043</v>
       </c>
-      <c r="C102" s="0"/>
+      <c r="C102"/>
       <c r="D102" s="62"/>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="62" t="n">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="62">
         <v>2062</v>
       </c>
-      <c r="B103" s="62" t="n">
+      <c r="B103" s="62">
         <v>2062</v>
       </c>
-      <c r="C103" s="0"/>
+      <c r="C103"/>
       <c r="D103" s="62"/>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="62" t="n">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="62">
         <v>2075</v>
       </c>
-      <c r="B104" s="62" t="n">
+      <c r="B104" s="62">
         <v>2075</v>
       </c>
-      <c r="C104" s="0"/>
+      <c r="C104"/>
       <c r="D104" s="62"/>
     </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="61" t="n">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="61">
         <v>2097</v>
       </c>
       <c r="B105" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="C105" s="0"/>
+      <c r="C105"/>
       <c r="D105" s="61"/>
     </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="62" t="n">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="62">
         <v>2118</v>
       </c>
-      <c r="B106" s="62" t="n">
+      <c r="B106" s="62">
         <v>2118</v>
       </c>
-      <c r="C106" s="0"/>
+      <c r="C106"/>
       <c r="D106" s="62"/>
     </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="61" t="n">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="61">
         <v>2140</v>
       </c>
       <c r="B107" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="C107" s="0"/>
+      <c r="C107"/>
       <c r="D107" s="61"/>
     </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="62" t="n">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="62">
         <v>2163</v>
       </c>
-      <c r="B108" s="62" t="n">
+      <c r="B108" s="62">
         <v>2163</v>
       </c>
-      <c r="C108" s="0"/>
+      <c r="C108"/>
       <c r="D108" s="62"/>
     </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="61" t="n">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="61">
         <v>2188</v>
       </c>
       <c r="B109" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="C109" s="0"/>
+      <c r="C109"/>
       <c r="D109" s="61"/>
     </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="62" t="n">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="62">
         <v>2211</v>
       </c>
-      <c r="B110" s="62" t="n">
+      <c r="B110" s="62">
         <v>2211</v>
       </c>
       <c r="C110" s="53" t="s">
@@ -4558,8 +4764,8 @@
       </c>
       <c r="D110" s="62"/>
     </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="61" t="n">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="61">
         <v>2232</v>
       </c>
       <c r="B111" s="61" t="s">
@@ -4567,8 +4773,8 @@
       </c>
       <c r="D111" s="61"/>
     </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="61" t="n">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="61">
         <v>2255</v>
       </c>
       <c r="B112" s="61" t="s">
@@ -4576,17 +4782,17 @@
       </c>
       <c r="D112" s="61"/>
     </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="62" t="n">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="62">
         <v>2278</v>
       </c>
-      <c r="B113" s="62" t="n">
+      <c r="B113" s="62">
         <v>2278</v>
       </c>
       <c r="D113" s="62"/>
     </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="61" t="n">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="61">
         <v>2304</v>
       </c>
       <c r="B114" s="61" t="s">
@@ -4594,17 +4800,17 @@
       </c>
       <c r="D114" s="61"/>
     </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="62" t="n">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="62">
         <v>2326</v>
       </c>
-      <c r="B115" s="62" t="n">
+      <c r="B115" s="62">
         <v>2326</v>
       </c>
       <c r="D115" s="62"/>
     </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="61" t="n">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="61">
         <v>2347</v>
       </c>
       <c r="B116" s="61" t="s">
@@ -4612,17 +4818,17 @@
       </c>
       <c r="D116" s="61"/>
     </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="62" t="n">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="62">
         <v>2368</v>
       </c>
-      <c r="B117" s="62" t="n">
+      <c r="B117" s="62">
         <v>2368</v>
       </c>
       <c r="D117" s="62"/>
     </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="61" t="n">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="61">
         <v>2386</v>
       </c>
       <c r="B118" s="61" t="s">
@@ -4630,8 +4836,8 @@
       </c>
       <c r="D118" s="61"/>
     </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="61" t="n">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="61">
         <v>2421</v>
       </c>
       <c r="B119" s="61" t="s">
@@ -4639,26 +4845,26 @@
       </c>
       <c r="D119" s="61"/>
     </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="62" t="n">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="62">
         <v>2436</v>
       </c>
-      <c r="B120" s="62" t="n">
+      <c r="B120" s="62">
         <v>2436</v>
       </c>
       <c r="D120" s="62"/>
     </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="63" t="n">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="63">
         <v>2460</v>
       </c>
-      <c r="B121" s="63" t="n">
+      <c r="B121" s="63">
         <v>2460</v>
       </c>
       <c r="D121" s="64"/>
     </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="61" t="n">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="61">
         <v>2476</v>
       </c>
       <c r="B122" s="61" t="s">
@@ -4666,8 +4872,8 @@
       </c>
       <c r="D122" s="61"/>
     </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="61" t="n">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="61">
         <v>2499</v>
       </c>
       <c r="B123" s="61" t="s">
@@ -4675,17 +4881,17 @@
       </c>
       <c r="D123" s="61"/>
     </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="62" t="n">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="62">
         <v>2519</v>
       </c>
-      <c r="B124" s="62" t="n">
+      <c r="B124" s="62">
         <v>2519</v>
       </c>
       <c r="D124" s="62"/>
     </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="61" t="n">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="61">
         <v>2545</v>
       </c>
       <c r="B125" s="61" t="s">
@@ -4693,17 +4899,17 @@
       </c>
       <c r="D125" s="61"/>
     </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="62" t="n">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="62">
         <v>2568</v>
       </c>
-      <c r="B126" s="62" t="n">
+      <c r="B126" s="62">
         <v>2568</v>
       </c>
       <c r="D126" s="62"/>
     </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="61" t="n">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="61">
         <v>2590</v>
       </c>
       <c r="B127" s="61" t="s">
@@ -4712,38 +4918,25 @@
       <c r="D127" s="61"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="20"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.85425101214575"/>
+    <col min="1" max="1025" width="8.85546875"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="20"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>